--- a/biology/Zoologie/Grandilithus_jianfengling/Grandilithus_jianfengling.xlsx
+++ b/biology/Zoologie/Grandilithus_jianfengling/Grandilithus_jianfengling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandilithus jianfengling est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandilithus jianfengling est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Hainan en Chine[1]. Elle se rencontre dans le xian de Ledong sur le mont Jianfengling[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Hainan en Chine. Elle se rencontre dans le xian de Ledong sur le mont Jianfengling.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,38 mm et la femelle paratype 5,58 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,38 mm et la femelle paratype 5,58 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia jianfengling par Fu, Zhang et Zhu en 2010. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia jianfengling par Fu, Zhang et Zhu en 2010. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le mont Jianfengling.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fu, Zhang &amp; Zhu, 2010 : « Three new species of the genus Otacilia (Araneae: Corinnidae) from Hainan Island, China. » Journal of Natural History, vol. 44, no 11/12, p. 639-650.</t>
         </is>
